--- a/public_html/data.xlsx
+++ b/public_html/data.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Таблица_задач1"/>
   </sheets>
   <definedNames>
-    <definedName name="Таблица_задач1">'Таблица_задач1'!$A$1:$H$1</definedName>
+    <definedName name="Таблица_задач1">'Таблица_задач1'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -364,32 +364,42 @@
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>Длительность</t>
+          <t>Начало</t>
         </is>
       </c>
       <c r="D1" s="0" t="inlineStr">
         <is>
-          <t>Начало</t>
+          <t>Окончание</t>
         </is>
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
-          <t>Окончание</t>
+          <t>Руководитель</t>
         </is>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
-          <t>Трудозатраты</t>
+          <t>Предшественники</t>
         </is>
       </c>
       <c r="G1" s="0" t="inlineStr">
         <is>
-          <t>Фактические_трудозатраты</t>
+          <t>Процент_завершения</t>
         </is>
       </c>
       <c r="H1" s="0" t="inlineStr">
         <is>
-          <t>Процент_завершения</t>
+          <t>Затраты</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Фактические_затраты</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>Адрес_гиперссылки</t>
         </is>
       </c>
     </row>
@@ -399,39 +409,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>WF2020 проектный отдел</t>
-        </is>
-      </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>448 дней?</t>
+          <t>25 Январь 2021 9:00</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>26 Октябрь 2020 9:00</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>13 Июль 2022 18:00</t>
-        </is>
-      </c>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>19 418,68ч</t>
+          <t>16 Август 2022 18:00</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>867ч</t>
+          <t>5.0000000000000003E-2</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>2.9999999999999999E-2</t>
+          <t>13615225.73</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>367749.42299999995</t>
         </is>
       </c>
     </row>
@@ -443,37 +443,42 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>WF2020_PO_24.12.2020_Управление</t>
+          <t>ЗПП Городецкая_220</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>255 дней</t>
+          <t>05 Февраль 2021 9:00</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>11 Январь 2021 9:00</t>
+          <t>16 Август 2022 18:00</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>31 Декабрь 2021 18:00</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>6 732ч</t>
+          <t>Рыжков</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>0ч</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11140828.970000001</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>148896.35999999999</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>http://kruerf.com/zpp-gorodetskaya-220</t>
         </is>
       </c>
     </row>
@@ -485,37 +490,32 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>ПИР Северная Крым</t>
+          <t>ПО_ЗПП Городецкая_220</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>89,89 дней?</t>
+          <t>05 Февраль 2021 9:00</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>11 Январь 2021 9:00</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>14 Май 2021 17:06</t>
-        </is>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>3 566,58ч</t>
+          <t>10 Ноябрь 2021 18:00</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>360,8ч</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>7.0000000000000007E-2</t>
+          <t>7081126.7599999998</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>148896.35999999999</t>
         </is>
       </c>
     </row>
@@ -527,35 +527,30 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>2КТП 250_КТП-8 Аэропорт</t>
+          <t>КО_ЗПП Городецкая_220</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>22 дней</t>
+          <t>04 Апрель 2021 8:00</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>22 Февраль 2021 9:00</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>24 Март 2021 9:01</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>288ч</t>
+          <t>16 Август 2022 18:00</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>0ч</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>4059702.21</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -569,37 +564,42 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>ПИР "Маслово ПС 110/10"</t>
+          <t>ГПУ 1500 ГринТехЭнерджи</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>31 дней</t>
+          <t>25 Январь 2021 9:00</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>26 Октябрь 2020 9:00</t>
+          <t>16 Август 2022 18:00</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>07 Декабрь 2020 18:00</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>566ч</t>
+          <t>Жибрик</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>506,2ч</t>
+          <t>0.10000000000000001</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>0.90000000000000002</t>
+          <t>2474396.7599999998</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>218853.06299999997</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>http://kruerf.com/gpu-1500-grintekhenerdzhi</t>
         </is>
       </c>
     </row>
@@ -611,37 +611,32 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>WF2021_PO_22.01.2021_ЗПП-220</t>
+          <t>ПО_ГринТех Энерджи_ ГПУ 1500кВт 0,4кВ</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>124 дней</t>
+          <t>25 Январь 2021 9:00</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>19 Апрель 2021 9:00</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>07 Октябрь 2021 18:00</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>3 296ч</t>
+          <t>01 Июль 2021 18:00</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>0ч</t>
+          <t>0.35999999999999999</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>593955.83999999997</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>168094.14299999998</t>
         </is>
       </c>
     </row>
@@ -653,289 +648,32 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>WF2021_PO_22.01.2021_ЗПП-110</t>
+          <t>КО_ГПУ 1500 ГринТехЭнерджи</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>15 дней</t>
+          <t>01 Март 2021 9:00</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>22 Январь 2021 9:00</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>11 Февраль 2021 18:00</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>0ч</t>
+          <t>16 Август 2022 18:00</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>0ч</t>
+          <t>2.9999999999999999E-2</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>WF2021_PO_22.01.2021_Другие задачи</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>45 дней</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>11 Январь 2021 9:00</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>12 Март 2021 18:00</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>624ч</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t>0ч</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>WF2020_PO_25.01.2021_ММПС 110_Чечня</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>183 дней</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>01 Ноябрь 2021 9:00</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>13 Июль 2022 18:00</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>888ч</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t>0ч</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>Проектирование кабельной линии 35 кВ. Нефтеюганск</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>137,48 дней</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>18 Январь 2021 9:00</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>28 Июль 2021 12:53</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>1 174,42ч</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>0ч</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>WF2021_PO_28.01.2021_ГПУ_ТТ_ГринТехЭнерджи</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>87 дней</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>30 Ноябрь 2020 9:00</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>30 Март 2021 18:00</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>1 214,08ч</t>
-        </is>
-      </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t>0ч</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>WF2021_PO_28.01.2021_ГПУ_ГРАСС_ГринТехЭнерджи</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>52 дней</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>25 Январь 2021 9:00</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>06 Апрель 2021 18:00</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>552ч</t>
-        </is>
-      </c>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t>0ч</t>
-        </is>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>WF2021_PO_31.01.2021_ГПУ_ПЕТРОВАКС_ГринТехЭнерджи</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>56 дней</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>25 Январь 2021 9:00</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>12 Апрель 2021 18:00</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>517,6ч</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t>0ч</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>1880440.9199999999</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>50758.919999999998</t>
         </is>
       </c>
     </row>

--- a/public_html/data.xlsx
+++ b/public_html/data.xlsx
@@ -409,6 +409,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Визуал_сборка_2020-2021_ПЭМ</t>
+        </is>
+      </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
           <t>25 Январь 2021 9:00</t>
@@ -456,11 +461,6 @@
           <t>16 Август 2022 18:00</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>Рыжков</t>
-        </is>
-      </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
           <t>0.01</t>
@@ -485,7 +485,7 @@
     <row outlineLevel="0" r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -522,7 +522,7 @@
     <row outlineLevel="0" r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -577,11 +577,6 @@
           <t>16 Август 2022 18:00</t>
         </is>
       </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>Жибрик</t>
-        </is>
-      </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
           <t>0.10000000000000001</t>
@@ -606,7 +601,7 @@
     <row outlineLevel="0" r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -643,7 +638,7 @@
     <row outlineLevel="0" r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
